--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4014826.410790111</v>
+        <v>4010813.800776121</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>93.91244618182571</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>104.3151417514978</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.26879610203984</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,16 +873,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>255.2442932547854</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>243.4420291455245</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>97.98497099623607</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.78403549195914</v>
+        <v>4.043187116398555</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.4110857322207</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>68.11015198958215</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>267.6696096242484</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>39.5212963318321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>106.1798850986055</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>90.48716302792783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>101.0545458193601</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>161.7400393421043</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>114.932220804165</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,16 +2557,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417098</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>20.66101211579036</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.069540131684477</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>40.62253010341785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>20.92847288552853</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>152.3242997534473</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>147.0407206186889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>39.19314274110882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.81060261323961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.755181644084</v>
+        <v>1685.375546116516</v>
       </c>
       <c r="C2" t="n">
-        <v>888.7926647036722</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D2" t="n">
-        <v>530.5269660969217</v>
+        <v>958.1473305693542</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>572.3590779711099</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073141</v>
+        <v>161.3731731815023</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3220.236991557153</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3014.259243941375</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2760.728767215212</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2760.728767215212</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2407.960111945097</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2034.494353684017</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.355021708206</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1908.841218692493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.155334519319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1495.388719088845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1206.285852214489</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="V4" t="n">
-        <v>951.6013640086019</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="W4" t="n">
-        <v>662.1841939716412</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="X4" t="n">
-        <v>434.1946430736239</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4020639300938</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.86133602681</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>769.4825048886521</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>769.4825048886521</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1973.000668002622</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1582.86133602681</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.6408346941415</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X7" t="n">
-        <v>674.4145879000976</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y7" t="n">
-        <v>640.2892995243812</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2325.505862906803</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1956.543345966391</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>1598.27764735964</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E8" t="n">
-        <v>1212.489394761396</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>188.3391946301244</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>177.3071485155249</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2325.505862906803</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640134</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1312.406259585337</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5050,40 +5050,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947872</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061504</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.355259300791</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2495.978408795859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.294644713842</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859351</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2418223735993</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>597.2418223735993</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>450.351874875689</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>283.1557755905689</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.294644713842</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5594,28 +5594,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2598873597757</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1052.829365488568</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>883.8931825606608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>733.776543148325</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1683.259960360355</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.270409462337</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1234.477830318807</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>119.2902967703784</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.3929232910542</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2263.824227505223</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.240688199802</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.823518162841</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.833967264824</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.041388121294</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856866</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>808.8888553856866</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>658.7722159733509</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>510.8591223909577</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>363.9691748930474</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>196.7730756079273</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159263</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6724,25 +6724,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239597</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1936.428221820188</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,61 +6913,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6979,10 +6979,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2567.280686761779</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>2567.280686761779</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>2817.800993781636</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>3445.398957336243</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.30868757553</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290468</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>699.7311804011399</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.199616443681</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2043.199616443681</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1788.515128237794</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.097958200834</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1271.108407302816</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.315828159286</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7183,16 +7183,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532801</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1539.859873431788</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1250.442703394828</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1022.45315249681</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>801.6605733532801</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7772127656159</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>782.841029837709</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7255247667957</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.11482774761836</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>45.37941682720904</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>5.506781756523566</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>66.09406519747961</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>119.6337007304335</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>211.5151132204103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>245.5619442858263</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>65.08115057384094</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>105.0969227051391</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>212.9445005827192</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.0213775686977</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>626760.3187684342</v>
+        <v>626760.3187684343</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>616338.9411377263</v>
+        <v>616338.9411377262</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>616338.9411377263</v>
+        <v>616338.9411377262</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
@@ -26334,28 +26334,28 @@
         <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.01098815718</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90964.01098815717</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.0109881571</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90964.01098815716</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26441,16 +26441,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168059</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706600.9274128599</v>
+        <v>-706600.9274128594</v>
       </c>
       <c r="C6" t="n">
-        <v>622143.8183147328</v>
+        <v>622143.818314733</v>
       </c>
       <c r="D6" t="n">
-        <v>622143.8183147329</v>
+        <v>622143.8183147323</v>
       </c>
       <c r="E6" t="n">
-        <v>368834.6318419375</v>
+        <v>368487.2525875813</v>
       </c>
       <c r="F6" t="n">
-        <v>694247.0936492931</v>
+        <v>693899.7143949362</v>
       </c>
       <c r="G6" t="n">
-        <v>694247.0936492938</v>
+        <v>693899.7143949363</v>
       </c>
       <c r="H6" t="n">
-        <v>694247.0936492932</v>
+        <v>693899.7143949363</v>
       </c>
       <c r="I6" t="n">
-        <v>694247.0936492931</v>
+        <v>693899.7143949365</v>
       </c>
       <c r="J6" t="n">
-        <v>476715.8912520154</v>
+        <v>476368.5119976589</v>
       </c>
       <c r="K6" t="n">
-        <v>694247.0936492931</v>
+        <v>693899.7143949365</v>
       </c>
       <c r="L6" t="n">
-        <v>694247.0936492931</v>
+        <v>693899.7143949361</v>
       </c>
       <c r="M6" t="n">
-        <v>609192.0657137814</v>
+        <v>608844.6864594244</v>
       </c>
       <c r="N6" t="n">
-        <v>694247.0936492933</v>
+        <v>693899.7143949363</v>
       </c>
       <c r="O6" t="n">
-        <v>694247.0936492933</v>
+        <v>693899.7143949366</v>
       </c>
       <c r="P6" t="n">
-        <v>694247.0936492933</v>
+        <v>693899.7143949365</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>317.0092794716277</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.872620036678043</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.66335656800749</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>30.96754495082746</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>163.4340165961869</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>271.7461296822329</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.8006178601356</v>
+        <v>214.5414662356962</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.46496000949071</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>226.4976123977383</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>18.85338871234262</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29277,19 +29277,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.193604276308554e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>316.0872899694767</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.641248090987</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>150.2061940096322</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>163.572382128305</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M36" t="n">
-        <v>395.1848490935913</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>347.4623967873085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>173.4910455250323</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.6594740049655</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35962,7 +35962,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>18.86448192629892</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M36" t="n">
-        <v>253.050815171573</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>208.9080170074343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4010813.800776121</v>
+        <v>4012574.331078906</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>93.91244618182571</v>
+        <v>93.91244618182614</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>255.2442932547854</v>
+        <v>255.2442932547859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>243.4420291455245</v>
+        <v>243.4420291455263</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.043187116398555</v>
+        <v>4.043187116399006</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>68.11015198958215</v>
+        <v>68.11015198958259</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.15319674220954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>114.932220804165</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,16 +2557,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417098</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>20.92847288552853</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116516</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C2" t="n">
         <v>1316.413029176105</v>
       </c>
       <c r="D2" t="n">
-        <v>958.1473305693542</v>
+        <v>958.1473305693546</v>
       </c>
       <c r="E2" t="n">
-        <v>572.3590779711099</v>
+        <v>572.3590779711103</v>
       </c>
       <c r="F2" t="n">
-        <v>161.3731731815023</v>
+        <v>161.3731731815028</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,10 +4363,10 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4479,25 +4479,25 @@
         <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495403</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>769.4825048886521</v>
+        <v>769.4825048886539</v>
       </c>
       <c r="E5" t="n">
-        <v>769.4825048886521</v>
+        <v>769.4825048886539</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559524</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4707,34 +4707,34 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,16 +4746,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
         <v>1638.191681214136</v>
@@ -4764,10 +4764,10 @@
         <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971288</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732708</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
         <v>862.0164446829692</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565138</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
         <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179762</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197319</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301244</v>
+        <v>188.3391946301248</v>
       </c>
       <c r="G8" t="n">
-        <v>177.3071485155249</v>
+        <v>177.3071485155254</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4849,7 +4849,7 @@
         <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.94140762926</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,16 +5117,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
         <v>1577.52840832642</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4360536966684</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5275,52 +5275,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
         <v>2129.438138565707</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,31 +5497,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.824227505223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6293,16 +6293,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6615,10 +6615,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,7 +6700,7 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075817</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>35.112639576356</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>125.5054897610406</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>626760.3187684343</v>
+        <v>626760.3187684342</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>616338.9411377262</v>
+        <v>616338.9411377263</v>
       </c>
     </row>
     <row r="6">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642829</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642832</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900065</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26441,16 +26441,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.9762168059</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706600.9274128594</v>
+        <v>-706600.9274128601</v>
       </c>
       <c r="C6" t="n">
-        <v>622143.818314733</v>
+        <v>622143.8183147328</v>
       </c>
       <c r="D6" t="n">
-        <v>622143.8183147323</v>
+        <v>622143.8183147328</v>
       </c>
       <c r="E6" t="n">
-        <v>368487.2525875813</v>
+        <v>368799.8939165026</v>
       </c>
       <c r="F6" t="n">
-        <v>693899.7143949362</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="G6" t="n">
-        <v>693899.7143949363</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="H6" t="n">
-        <v>693899.7143949363</v>
+        <v>694212.3557238575</v>
       </c>
       <c r="I6" t="n">
-        <v>693899.7143949365</v>
+        <v>694212.3557238575</v>
       </c>
       <c r="J6" t="n">
-        <v>476368.5119976589</v>
+        <v>476681.1533265802</v>
       </c>
       <c r="K6" t="n">
-        <v>693899.7143949365</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="L6" t="n">
-        <v>693899.7143949361</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="M6" t="n">
-        <v>608844.6864594244</v>
+        <v>609157.3277883459</v>
       </c>
       <c r="N6" t="n">
-        <v>693899.7143949363</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="O6" t="n">
-        <v>693899.7143949366</v>
+        <v>694212.3557238579</v>
       </c>
       <c r="P6" t="n">
-        <v>693899.7143949365</v>
+        <v>694212.3557238578</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>317.0092794716277</v>
+        <v>317.0092794716273</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>30.96754495082746</v>
+        <v>30.967544950827</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>163.4340165961869</v>
+        <v>163.4340165961851</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.5414662356962</v>
+        <v>214.5414662356958</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>226.4976123977383</v>
+        <v>226.4976123977379</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -29277,19 +29277,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.607718096583367e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,7 +31849,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>650.2626573149953</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>593.5422977113961</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,7 +35497,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>508.128623392977</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>462.2005856280628</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
